--- a/data/datasets/properties_1/datasets_excel/sanity_checks.xlsx
+++ b/data/datasets/properties_1/datasets_excel/sanity_checks.xlsx
@@ -1459,16 +1459,16 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
+        <v>97</v>
+      </c>
+      <c r="G17" t="n">
         <v>95</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
+        <v>96</v>
+      </c>
+      <c r="I17" t="n">
         <v>97</v>
-      </c>
-      <c r="H17" t="n">
-        <v>97</v>
-      </c>
-      <c r="I17" t="n">
-        <v>96</v>
       </c>
       <c r="J17" t="n">
         <v>97</v>
@@ -1477,28 +1477,28 @@
         <v>99</v>
       </c>
       <c r="L17" t="n">
+        <v>98</v>
+      </c>
+      <c r="M17" t="n">
+        <v>97</v>
+      </c>
+      <c r="N17" t="n">
+        <v>100</v>
+      </c>
+      <c r="O17" t="n">
         <v>99</v>
-      </c>
-      <c r="M17" t="n">
-        <v>100</v>
-      </c>
-      <c r="N17" t="n">
-        <v>98</v>
-      </c>
-      <c r="O17" t="n">
-        <v>97</v>
       </c>
       <c r="P17" t="n">
         <v>98</v>
       </c>
       <c r="Q17" t="n">
+        <v>98</v>
+      </c>
+      <c r="R17" t="n">
+        <v>97</v>
+      </c>
+      <c r="S17" t="n">
         <v>99</v>
-      </c>
-      <c r="R17" t="n">
-        <v>98</v>
-      </c>
-      <c r="S17" t="n">
-        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -1520,46 +1520,46 @@
         <v>2</v>
       </c>
       <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
         <v>12</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
+        <v>38</v>
+      </c>
+      <c r="I18" t="n">
         <v>18</v>
       </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>38</v>
-      </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
+        <v>20</v>
+      </c>
+      <c r="L18" t="n">
         <v>4</v>
       </c>
-      <c r="L18" t="n">
-        <v>20</v>
-      </c>
       <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
         <v>11</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>4</v>
       </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1584,43 +1584,43 @@
         <v>2</v>
       </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
         <v>22</v>
       </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
         <v>15</v>
       </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="S19" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1645,28 +1645,28 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="L20" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
@@ -1675,13 +1675,13 @@
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1703,46 +1703,46 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>97</v>
+      </c>
+      <c r="I21" t="n">
         <v>96</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>95</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
+        <v>96</v>
+      </c>
+      <c r="L21" t="n">
         <v>97</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>99</v>
       </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
+        <v>96</v>
+      </c>
+      <c r="O21" t="n">
         <v>97</v>
       </c>
-      <c r="L21" t="n">
-        <v>96</v>
-      </c>
-      <c r="M21" t="n">
-        <v>96</v>
-      </c>
-      <c r="N21" t="n">
-        <v>97</v>
-      </c>
-      <c r="O21" t="n">
-        <v>95</v>
-      </c>
       <c r="P21" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q21" t="n">
         <v>99</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
+        <v>98</v>
+      </c>
+      <c r="S21" t="n">
         <v>56</v>
-      </c>
-      <c r="R21" t="n">
-        <v>50</v>
-      </c>
-      <c r="S21" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -1764,37 +1764,37 @@
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>24</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1828,22 +1828,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>46</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L23" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I24" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J24" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K24" t="n">
         <v>99</v>
@@ -1907,7 +1907,7 @@
         <v>99</v>
       </c>
       <c r="M24" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N24" t="n">
         <v>99</v>
@@ -1922,10 +1922,10 @@
         <v>99</v>
       </c>
       <c r="R24" t="n">
+        <v>98</v>
+      </c>
+      <c r="S24" t="n">
         <v>99</v>
-      </c>
-      <c r="S24" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1947,10 +1947,10 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1962,28 +1962,28 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2008,46 +2008,46 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
+        <v>87</v>
+      </c>
+      <c r="G26" t="n">
         <v>67</v>
-      </c>
-      <c r="G26" t="n">
-        <v>100</v>
       </c>
       <c r="H26" t="n">
         <v>87</v>
       </c>
       <c r="I26" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J26" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" t="n">
         <v>98</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
+        <v>100</v>
+      </c>
+      <c r="M26" t="n">
+        <v>98</v>
+      </c>
+      <c r="N26" t="n">
+        <v>100</v>
+      </c>
+      <c r="O26" t="n">
         <v>99</v>
       </c>
-      <c r="L26" t="n">
-        <v>98</v>
-      </c>
-      <c r="M26" t="n">
-        <v>100</v>
-      </c>
-      <c r="N26" t="n">
-        <v>100</v>
-      </c>
-      <c r="O26" t="n">
-        <v>100</v>
-      </c>
       <c r="P26" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="Q26" t="n">
+        <v>100</v>
+      </c>
+      <c r="R26" t="n">
+        <v>100</v>
+      </c>
+      <c r="S26" t="n">
         <v>88</v>
-      </c>
-      <c r="R26" t="n">
-        <v>79</v>
-      </c>
-      <c r="S26" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -2069,46 +2069,46 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
+        <v>14</v>
+      </c>
+      <c r="G27" t="n">
         <v>72</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
+        <v>12</v>
+      </c>
+      <c r="I27" t="n">
         <v>23</v>
       </c>
-      <c r="H27" t="n">
-        <v>14</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>12</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>9</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>12</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2133,14 +2133,14 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>10</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
@@ -2148,25 +2148,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>8</v>
       </c>
-      <c r="N28" t="n">
-        <v>5</v>
-      </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2191,46 +2191,46 @@
         <v>2</v>
       </c>
       <c r="F29" t="n">
+        <v>88</v>
+      </c>
+      <c r="G29" t="n">
         <v>73</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
+        <v>76</v>
+      </c>
+      <c r="I29" t="n">
         <v>49</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
+        <v>82</v>
+      </c>
+      <c r="K29" t="n">
+        <v>69</v>
+      </c>
+      <c r="L29" t="n">
+        <v>82</v>
+      </c>
+      <c r="M29" t="n">
+        <v>95</v>
+      </c>
+      <c r="N29" t="n">
+        <v>80</v>
+      </c>
+      <c r="O29" t="n">
+        <v>64</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
         <v>88</v>
       </c>
-      <c r="I29" t="n">
+      <c r="R29" t="n">
         <v>76</v>
       </c>
-      <c r="J29" t="n">
-        <v>95</v>
-      </c>
-      <c r="K29" t="n">
-        <v>64</v>
-      </c>
-      <c r="L29" t="n">
-        <v>69</v>
-      </c>
-      <c r="M29" t="n">
-        <v>80</v>
-      </c>
-      <c r="N29" t="n">
-        <v>82</v>
-      </c>
-      <c r="O29" t="n">
-        <v>82</v>
-      </c>
-      <c r="P29" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>62</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -2252,46 +2252,46 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
         <v>9</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
         <v>68</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
         <v>4</v>
       </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
         <v>42</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2313,46 +2313,46 @@
         <v>2</v>
       </c>
       <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
         <v>47</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="n">
         <v>11</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
+        <v>9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>16</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>32</v>
+      </c>
+      <c r="O31" t="n">
+        <v>7</v>
+      </c>
+      <c r="P31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>6</v>
+      </c>
+      <c r="R31" t="n">
         <v>4</v>
       </c>
-      <c r="I31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>7</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="S31" t="n">
         <v>5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>32</v>
-      </c>
-      <c r="N31" t="n">
-        <v>16</v>
-      </c>
-      <c r="O31" t="n">
-        <v>9</v>
-      </c>
-      <c r="P31" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>9</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2374,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2383,28 +2383,28 @@
         <v>16</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>49</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>9</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -2499,31 +2499,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L34" t="n">
+        <v>100</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>47</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2557,46 +2557,46 @@
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G35" t="n">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="H35" t="n">
         <v>16</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
         <v>79</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
         <v>35</v>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
         <v>41</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>12</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2618,46 +2618,46 @@
         <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G36" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H36" t="n">
         <v>99</v>
       </c>
       <c r="I36" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J36" t="n">
+        <v>93</v>
+      </c>
+      <c r="K36" t="n">
         <v>89</v>
       </c>
-      <c r="K36" t="n">
-        <v>92</v>
-      </c>
       <c r="L36" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M36" t="n">
         <v>95</v>
       </c>
       <c r="N36" t="n">
+        <v>92</v>
+      </c>
+      <c r="O36" t="n">
         <v>87</v>
       </c>
-      <c r="O36" t="n">
-        <v>100</v>
-      </c>
       <c r="P36" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="Q36" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="R36" t="n">
         <v>93</v>
       </c>
       <c r="S36" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -2679,46 +2679,46 @@
         <v>3</v>
       </c>
       <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>54</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>57</v>
       </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>54</v>
-      </c>
       <c r="J37" t="n">
+        <v>10</v>
+      </c>
+      <c r="K37" t="n">
         <v>5</v>
       </c>
-      <c r="K37" t="n">
-        <v>11</v>
-      </c>
       <c r="L37" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>7</v>
       </c>
       <c r="N37" t="n">
+        <v>11</v>
+      </c>
+      <c r="O37" t="n">
         <v>5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>6</v>
       </c>
       <c r="P37" t="n">
         <v>7</v>
       </c>
       <c r="Q37" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R37" t="n">
         <v>12</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -2743,19 +2743,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2804,43 +2804,43 @@
         <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H39" t="n">
         <v>70</v>
       </c>
       <c r="I39" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J39" t="n">
+        <v>71</v>
+      </c>
+      <c r="K39" t="n">
         <v>83</v>
       </c>
-      <c r="K39" t="n">
-        <v>100</v>
-      </c>
       <c r="L39" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="M39" t="n">
         <v>72</v>
       </c>
       <c r="N39" t="n">
+        <v>100</v>
+      </c>
+      <c r="O39" t="n">
         <v>76</v>
       </c>
-      <c r="O39" t="n">
-        <v>100</v>
-      </c>
       <c r="P39" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="Q39" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="R39" t="n">
         <v>74</v>
       </c>
       <c r="S39" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
@@ -2877,17 +2877,17 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>8</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
@@ -2895,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2923,22 +2923,22 @@
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G41" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>19</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G42" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
         <v>100</v>
@@ -3014,16 +3014,16 @@
         <v>100</v>
       </c>
       <c r="P42" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q42" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R42" t="n">
         <v>69</v>
       </c>
       <c r="S42" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -3048,28 +3048,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>95</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3109,34 +3109,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
       </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>36</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
         <v>51</v>
       </c>
-      <c r="J44" t="n">
-        <v>36</v>
-      </c>
-      <c r="K44" t="n">
-        <v>51</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>2</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2</v>
-      </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -3170,22 +3170,22 @@
         <v>98</v>
       </c>
       <c r="G45" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H45" t="n">
         <v>68</v>
       </c>
       <c r="I45" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J45" t="n">
+        <v>86</v>
+      </c>
+      <c r="K45" t="n">
         <v>99</v>
       </c>
-      <c r="K45" t="n">
-        <v>98</v>
-      </c>
       <c r="L45" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M45" t="n">
         <v>99</v>
@@ -3194,19 +3194,19 @@
         <v>98</v>
       </c>
       <c r="O45" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P45" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q45" t="n">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="R45" t="n">
         <v>99</v>
       </c>
       <c r="S45" t="n">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
@@ -3228,40 +3228,40 @@
         <v>3</v>
       </c>
       <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>4</v>
       </c>
-      <c r="G46" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>98</v>
-      </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
         <v>48</v>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1</v>
-      </c>
       <c r="O46" t="n">
         <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
         <v>1</v>
@@ -3289,40 +3289,40 @@
         <v>4</v>
       </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
         <v>11</v>
       </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>63</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
         <v>16</v>
       </c>
-      <c r="M47" t="n">
-        <v>3</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2</v>
-      </c>
       <c r="O47" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>4</v>
@@ -3350,43 +3350,43 @@
         <v>4</v>
       </c>
       <c r="F48" t="n">
+        <v>99</v>
+      </c>
+      <c r="G48" t="n">
         <v>96</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>90</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>97</v>
       </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
       <c r="J48" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K48" t="n">
         <v>97</v>
       </c>
       <c r="L48" t="n">
+        <v>97</v>
+      </c>
+      <c r="M48" t="n">
+        <v>89</v>
+      </c>
+      <c r="N48" t="n">
         <v>98</v>
       </c>
-      <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="N48" t="n">
-        <v>89</v>
-      </c>
       <c r="O48" t="n">
+        <v>79</v>
+      </c>
+      <c r="P48" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q48" t="n">
         <v>97</v>
       </c>
-      <c r="P48" t="n">
-        <v>97</v>
-      </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>84</v>
-      </c>
-      <c r="R48" t="n">
-        <v>99</v>
       </c>
       <c r="S48" t="n">
         <v>76</v>
@@ -3417,28 +3417,28 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
         <v>8</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
         <v>10</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1</v>
-      </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -3472,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3481,34 +3481,34 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
         <v>20</v>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
       <c r="O50" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
         <v>98</v>
@@ -3536,10 +3536,10 @@
         <v>98</v>
       </c>
       <c r="G51" t="n">
+        <v>98</v>
+      </c>
+      <c r="H51" t="n">
         <v>12</v>
-      </c>
-      <c r="H51" t="n">
-        <v>98</v>
       </c>
       <c r="I51" t="n">
         <v>98</v>
@@ -3548,7 +3548,7 @@
         <v>99</v>
       </c>
       <c r="K51" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>98</v>
@@ -3557,19 +3557,19 @@
         <v>99</v>
       </c>
       <c r="N51" t="n">
+        <v>98</v>
+      </c>
+      <c r="O51" t="n">
         <v>99</v>
       </c>
-      <c r="O51" t="n">
-        <v>100</v>
-      </c>
       <c r="P51" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q51" t="n">
         <v>86</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>99</v>
-      </c>
-      <c r="R51" t="n">
-        <v>22</v>
       </c>
       <c r="S51" t="n">
         <v>99</v>
@@ -3594,43 +3594,43 @@
         <v>4</v>
       </c>
       <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
         <v>93</v>
       </c>
-      <c r="G52" t="n">
-        <v>3</v>
-      </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
         <v>14</v>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1</v>
-      </c>
       <c r="O52" t="n">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -3655,11 +3655,11 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>13</v>
       </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
@@ -3670,19 +3670,19 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
         <v>20</v>
       </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
       <c r="O53" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3795,13 +3795,13 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3810,10 +3810,10 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -3838,43 +3838,43 @@
         <v>4</v>
       </c>
       <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>30</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>5</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>75</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
         <v>74</v>
       </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
       <c r="O56" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -3917,25 +3917,25 @@
         <v>100</v>
       </c>
       <c r="L57" t="n">
+        <v>100</v>
+      </c>
+      <c r="M57" t="n">
+        <v>100</v>
+      </c>
+      <c r="N57" t="n">
         <v>93</v>
       </c>
-      <c r="M57" t="n">
-        <v>100</v>
-      </c>
-      <c r="N57" t="n">
-        <v>100</v>
-      </c>
       <c r="O57" t="n">
         <v>100</v>
       </c>
       <c r="P57" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="Q57" t="n">
         <v>100</v>
       </c>
       <c r="R57" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="S57" t="n">
         <v>71</v>
@@ -3960,10 +3960,10 @@
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3978,13 +3978,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
         <v>44</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4024,40 +4024,40 @@
         <v>100</v>
       </c>
       <c r="G59" t="n">
+        <v>100</v>
+      </c>
+      <c r="H59" t="n">
         <v>71</v>
       </c>
-      <c r="H59" t="n">
-        <v>100</v>
-      </c>
       <c r="I59" t="n">
         <v>100</v>
       </c>
       <c r="J59" t="n">
+        <v>100</v>
+      </c>
+      <c r="K59" t="n">
+        <v>100</v>
+      </c>
+      <c r="L59" t="n">
+        <v>100</v>
+      </c>
+      <c r="M59" t="n">
+        <v>100</v>
+      </c>
+      <c r="N59" t="n">
+        <v>100</v>
+      </c>
+      <c r="O59" t="n">
         <v>82</v>
       </c>
-      <c r="K59" t="n">
-        <v>100</v>
-      </c>
-      <c r="L59" t="n">
-        <v>100</v>
-      </c>
-      <c r="M59" t="n">
-        <v>100</v>
-      </c>
-      <c r="N59" t="n">
-        <v>100</v>
-      </c>
-      <c r="O59" t="n">
-        <v>100</v>
-      </c>
       <c r="P59" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="Q59" t="n">
         <v>100</v>
       </c>
       <c r="R59" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="S59" t="n">
         <v>100</v>
@@ -4097,19 +4097,19 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
         <v>17</v>
       </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
       <c r="O60" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -4143,11 +4143,11 @@
         <v>4</v>
       </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>76</v>
       </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
@@ -4158,17 +4158,17 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
+        <v>100</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>82</v>
       </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
@@ -4176,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>

--- a/data/datasets/properties_1/datasets_excel/sanity_checks.xlsx
+++ b/data/datasets/properties_1/datasets_excel/sanity_checks.xlsx
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6503092</v>
+        <v>6503088</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -538,52 +538,52 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>90230</v>
+        <v>49350</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J2" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="K2" t="n">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="L2" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M2" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="O2" t="n">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="P2" t="n">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="R2" t="n">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="S2" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6503092</v>
+        <v>6503088</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -599,52 +599,52 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>49006</v>
+        <v>29951</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -652,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>6503092</v>
+        <v>6503088</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -660,52 +660,52 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>33248</v>
+        <v>28539</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -713,60 +713,60 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>6503091</v>
+        <v>6503093</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>46518</v>
+        <v>72758.5</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="M5" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -774,60 +774,60 @@
         <v>21</v>
       </c>
       <c r="B6" t="n">
-        <v>6503091</v>
+        <v>6503093</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>human</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27215</v>
+        <v>71795.39999999851</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -835,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>6503091</v>
+        <v>6503093</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -843,52 +843,52 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22428</v>
+        <v>28795</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -896,60 +896,60 @@
         <v>40</v>
       </c>
       <c r="B8" t="n">
-        <v>6503097</v>
+        <v>6503090</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77789.69999992847</v>
+        <v>35974.29999999981</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -957,60 +957,60 @@
         <v>41</v>
       </c>
       <c r="B9" t="n">
-        <v>6503097</v>
+        <v>6503090</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>human</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68006.89999997616</v>
+        <v>17571.29999999981</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="N9" t="n">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="B10" t="n">
-        <v>6503097</v>
+        <v>6503090</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1026,52 +1026,52 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>54725.79999995232</v>
+        <v>22189</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1079,60 +1079,60 @@
         <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>6503082</v>
+        <v>6503121</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>human</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>210588</v>
+        <v>74140.39999997616</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="K11" t="n">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1140,60 +1140,60 @@
         <v>61</v>
       </c>
       <c r="B12" t="n">
-        <v>6503082</v>
+        <v>6503121</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>112420</v>
+        <v>73713.90000009537</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H12" t="n">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="M12" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1201,7 +1201,7 @@
         <v>77</v>
       </c>
       <c r="B13" t="n">
-        <v>6503082</v>
+        <v>6503121</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>48305</v>
+        <v>49871.89999997616</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -1218,28 +1218,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>8</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>17</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1262,60 +1262,60 @@
         <v>80</v>
       </c>
       <c r="B14" t="n">
-        <v>6503105</v>
+        <v>6503474</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>human</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>59531.59999999998</v>
+        <v>72131.30000001192</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -1323,60 +1323,60 @@
         <v>81</v>
       </c>
       <c r="B15" t="n">
-        <v>6503105</v>
+        <v>6503474</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42574.39999999991</v>
+        <v>34148.30000001192</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="H15" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="R15" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1384,7 +1384,7 @@
         <v>97</v>
       </c>
       <c r="B16" t="n">
-        <v>6503105</v>
+        <v>6503474</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1392,52 +1392,52 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29866.09999999986</v>
+        <v>32468.60000002384</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>32</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>9</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>9</v>
+      </c>
+      <c r="S16" t="n">
         <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1445,60 +1445,60 @@
         <v>100</v>
       </c>
       <c r="B17" t="n">
-        <v>6503088</v>
+        <v>6503085</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>49350</v>
+        <v>80165.40000003576</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="G17" t="n">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K17" t="n">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1506,60 +1506,60 @@
         <v>101</v>
       </c>
       <c r="B18" t="n">
-        <v>6503088</v>
+        <v>6503085</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>human</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29951</v>
+        <v>75939.30000001192</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="H18" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="I18" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="K18" t="n">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -1567,7 +1567,7 @@
         <v>117</v>
       </c>
       <c r="B19" t="n">
-        <v>6503088</v>
+        <v>6503085</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1575,52 +1575,52 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>28539</v>
+        <v>36086.80000001192</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1628,7 +1628,7 @@
         <v>120</v>
       </c>
       <c r="B20" t="n">
-        <v>6503093</v>
+        <v>6503094</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>72758.5</v>
+        <v>44777</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="K20" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -1672,16 +1672,16 @@
         <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1689,7 +1689,7 @@
         <v>121</v>
       </c>
       <c r="B21" t="n">
-        <v>6503093</v>
+        <v>6503094</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1697,52 +1697,52 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>71795.39999999851</v>
+        <v>31586</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G21" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I21" t="n">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L21" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M21" t="n">
         <v>99</v>
       </c>
       <c r="N21" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O21" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P21" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="Q21" t="n">
+        <v>86</v>
+      </c>
+      <c r="R21" t="n">
         <v>99</v>
       </c>
-      <c r="R21" t="n">
-        <v>98</v>
-      </c>
       <c r="S21" t="n">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -1750,7 +1750,7 @@
         <v>137</v>
       </c>
       <c r="B22" t="n">
-        <v>6503093</v>
+        <v>6503094</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1758,49 +1758,49 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28795</v>
+        <v>34658.70000000112</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
         <v>2</v>
@@ -1811,7 +1811,7 @@
         <v>140</v>
       </c>
       <c r="B23" t="n">
-        <v>6503090</v>
+        <v>6503099</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>35974.29999999981</v>
+        <v>47409.40000000014</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -1828,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>141</v>
       </c>
       <c r="B24" t="n">
-        <v>6503090</v>
+        <v>6503099</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17571.29999999981</v>
+        <v>45276.19999999995</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -1892,40 +1892,40 @@
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I24" t="n">
         <v>100</v>
       </c>
       <c r="J24" t="n">
+        <v>100</v>
+      </c>
+      <c r="K24" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" t="n">
+        <v>100</v>
+      </c>
+      <c r="M24" t="n">
+        <v>100</v>
+      </c>
+      <c r="N24" t="n">
+        <v>100</v>
+      </c>
+      <c r="O24" t="n">
+        <v>100</v>
+      </c>
+      <c r="P24" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>100</v>
+      </c>
+      <c r="R24" t="n">
         <v>99</v>
       </c>
-      <c r="K24" t="n">
-        <v>99</v>
-      </c>
-      <c r="L24" t="n">
-        <v>99</v>
-      </c>
-      <c r="M24" t="n">
-        <v>98</v>
-      </c>
-      <c r="N24" t="n">
-        <v>99</v>
-      </c>
-      <c r="O24" t="n">
-        <v>99</v>
-      </c>
-      <c r="P24" t="n">
-        <v>99</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>99</v>
-      </c>
-      <c r="R24" t="n">
-        <v>98</v>
-      </c>
       <c r="S24" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -1933,7 +1933,7 @@
         <v>157</v>
       </c>
       <c r="B25" t="n">
-        <v>6503090</v>
+        <v>6503099</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22189</v>
+        <v>21773.49999999977</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1962,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -1994,60 +1994,60 @@
         <v>160</v>
       </c>
       <c r="B26" t="n">
-        <v>6503121</v>
+        <v>6503095</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>74140.39999997616</v>
+        <v>73007.20000000298</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G26" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="H26" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K26" t="n">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="L26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="Q26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2055,60 +2055,60 @@
         <v>161</v>
       </c>
       <c r="B27" t="n">
-        <v>6503121</v>
+        <v>6503095</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>human</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>73713.90000009537</v>
+        <v>38420.30000001192</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -2116,7 +2116,7 @@
         <v>177</v>
       </c>
       <c r="B28" t="n">
-        <v>6503121</v>
+        <v>6503095</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49871.89999997616</v>
+        <v>20346.5</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -2133,34 +2133,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>180</v>
       </c>
       <c r="B29" t="n">
-        <v>6503474</v>
+        <v>6503163</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2185,52 +2185,52 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>72131.30000001192</v>
+        <v>29921.5</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="J29" t="n">
+        <v>100</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100</v>
+      </c>
+      <c r="L29" t="n">
+        <v>100</v>
+      </c>
+      <c r="M29" t="n">
         <v>82</v>
       </c>
-      <c r="K29" t="n">
-        <v>69</v>
-      </c>
-      <c r="L29" t="n">
-        <v>82</v>
-      </c>
-      <c r="M29" t="n">
-        <v>95</v>
-      </c>
       <c r="N29" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O29" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="Q29" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="R29" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="S29" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -2238,7 +2238,7 @@
         <v>181</v>
       </c>
       <c r="B30" t="n">
-        <v>6503474</v>
+        <v>6503163</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2246,52 +2246,52 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>34148.30000001192</v>
+        <v>25656.90000000596</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2299,7 +2299,7 @@
         <v>197</v>
       </c>
       <c r="B31" t="n">
-        <v>6503474</v>
+        <v>6503163</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2307,52 +2307,52 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>32468.60000002384</v>
+        <v>14833</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="L31" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="P31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -3275,60 +3275,60 @@
         <v>300</v>
       </c>
       <c r="B47" t="n">
-        <v>6503085</v>
+        <v>6503092</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>human</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>80165.40000003576</v>
+        <v>90230</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I47" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="K47" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="N47" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
@@ -3336,60 +3336,60 @@
         <v>301</v>
       </c>
       <c r="B48" t="n">
-        <v>6503085</v>
+        <v>6503092</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>75939.30000001192</v>
+        <v>49006</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3397,7 +3397,7 @@
         <v>317</v>
       </c>
       <c r="B49" t="n">
-        <v>6503085</v>
+        <v>6503092</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3405,49 +3405,49 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>36086.80000001192</v>
+        <v>33248</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3458,60 +3458,60 @@
         <v>320</v>
       </c>
       <c r="B50" t="n">
-        <v>6503094</v>
+        <v>6503091</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>human</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>44777</v>
+        <v>46518</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="K50" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="N50" t="n">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="S50" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -3519,60 +3519,60 @@
         <v>321</v>
       </c>
       <c r="B51" t="n">
-        <v>6503094</v>
+        <v>6503091</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>31586</v>
+        <v>27215</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -3580,7 +3580,7 @@
         <v>337</v>
       </c>
       <c r="B52" t="n">
-        <v>6503094</v>
+        <v>6503091</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3588,19 +3588,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>34658.70000000112</v>
+        <v>22428</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
@@ -3618,22 +3618,22 @@
         <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3641,60 +3641,60 @@
         <v>340</v>
       </c>
       <c r="B53" t="n">
-        <v>6503099</v>
+        <v>6503097</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>human</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47409.40000000014</v>
+        <v>77789.69999992847</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
@@ -3702,60 +3702,60 @@
         <v>341</v>
       </c>
       <c r="B54" t="n">
-        <v>6503099</v>
+        <v>6503097</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>45276.19999999995</v>
+        <v>68006.89999997616</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="K54" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>100</v>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="N54" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="O54" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="P54" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="R54" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -3763,7 +3763,7 @@
         <v>357</v>
       </c>
       <c r="B55" t="n">
-        <v>6503099</v>
+        <v>6503097</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3771,52 +3771,52 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>21773.49999999977</v>
+        <v>54725.79999995232</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N55" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -3824,7 +3824,7 @@
         <v>360</v>
       </c>
       <c r="B56" t="n">
-        <v>6503095</v>
+        <v>6503082</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3832,43 +3832,43 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>73007.20000000298</v>
+        <v>210588</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G56" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N56" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>361</v>
       </c>
       <c r="B57" t="n">
-        <v>6503095</v>
+        <v>6503082</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>38420.30000001192</v>
+        <v>112420</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -3902,19 +3902,19 @@
         <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H57" t="n">
         <v>100</v>
       </c>
       <c r="I57" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K57" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L57" t="n">
         <v>100</v>
@@ -3923,22 +3923,22 @@
         <v>100</v>
       </c>
       <c r="N57" t="n">
+        <v>100</v>
+      </c>
+      <c r="O57" t="n">
+        <v>100</v>
+      </c>
+      <c r="P57" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>94</v>
+      </c>
+      <c r="R57" t="n">
+        <v>94</v>
+      </c>
+      <c r="S57" t="n">
         <v>93</v>
-      </c>
-      <c r="O57" t="n">
-        <v>100</v>
-      </c>
-      <c r="P57" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>100</v>
-      </c>
-      <c r="R57" t="n">
-        <v>100</v>
-      </c>
-      <c r="S57" t="n">
-        <v>71</v>
       </c>
     </row>
     <row r="58">
@@ -3946,7 +3946,7 @@
         <v>377</v>
       </c>
       <c r="B58" t="n">
-        <v>6503095</v>
+        <v>6503082</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3954,19 +3954,19 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>20346.5</v>
+        <v>48305</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G58" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -3978,13 +3978,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N58" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4007,60 +4007,60 @@
         <v>380</v>
       </c>
       <c r="B59" t="n">
-        <v>6503163</v>
+        <v>6503105</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>29921.5</v>
+        <v>59531.59999999998</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -4068,60 +4068,60 @@
         <v>381</v>
       </c>
       <c r="B60" t="n">
-        <v>6503163</v>
+        <v>6503105</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>human</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>25656.90000000596</v>
+        <v>42574.39999999991</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="K60" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N60" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61">
@@ -4129,7 +4129,7 @@
         <v>397</v>
       </c>
       <c r="B61" t="n">
-        <v>6503163</v>
+        <v>6503105</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -4137,52 +4137,52 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>14833</v>
+        <v>29866.09999999986</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
